--- a/admin/uploads/test.xlsx
+++ b/admin/uploads/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BTL\admin\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12525"/>
   </bookViews>
@@ -16,46 +21,304 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Kids Dresses</t>
-  </si>
-  <si>
-    <t>Toys</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Stationaries</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fancy party dreasses for kids</t>
-  </si>
-  <si>
-    <t>Mechanical and battery toys</t>
-  </si>
-  <si>
-    <t>Creamy cakes and sweets</t>
-  </si>
-  <si>
-    <t>Books and notebooks, craft papers</t>
-  </si>
-  <si>
-    <t>First aid tools</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+  <si>
+    <t>$2y$10$rCpnHGtra.axVLHRJS1fMOdyofMUPeIamkwIHR10H7u1tVB1CptkW</t>
+  </si>
+  <si>
+    <t>quanly1@mail.com</t>
+  </si>
+  <si>
+    <t>quanly2@mail.com</t>
+  </si>
+  <si>
+    <t>quanly3@mail.com</t>
+  </si>
+  <si>
+    <t>quanly4@mail.com</t>
+  </si>
+  <si>
+    <t>quanly5@mail.com</t>
+  </si>
+  <si>
+    <t>quanly6@mail.com</t>
+  </si>
+  <si>
+    <t>quanly7@mail.com</t>
+  </si>
+  <si>
+    <t>quanly8@mail.com</t>
+  </si>
+  <si>
+    <t>quanly9@mail.com</t>
+  </si>
+  <si>
+    <t>quanly10@mail.com</t>
+  </si>
+  <si>
+    <t>quanly11@mail.com</t>
+  </si>
+  <si>
+    <t>quanly12@mail.com</t>
+  </si>
+  <si>
+    <t>quanly13@mail.com</t>
+  </si>
+  <si>
+    <t>quanly14@mail.com</t>
+  </si>
+  <si>
+    <t>quanly15@mail.com</t>
+  </si>
+  <si>
+    <t>quanly16@mail.com</t>
+  </si>
+  <si>
+    <t>quanly17@mail.com</t>
+  </si>
+  <si>
+    <t>quanly18@mail.com</t>
+  </si>
+  <si>
+    <t>quanly19@mail.com</t>
+  </si>
+  <si>
+    <t>quanly20@mail.com</t>
+  </si>
+  <si>
+    <t>quanly21@mail.com</t>
+  </si>
+  <si>
+    <t>quanly22@mail.com</t>
+  </si>
+  <si>
+    <t>admin1@mail.com</t>
+  </si>
+  <si>
+    <t>admin2@mail.com</t>
+  </si>
+  <si>
+    <t>admin3@mail.com</t>
+  </si>
+  <si>
+    <t>admin4@mail.com</t>
+  </si>
+  <si>
+    <t>admin5@mail.com</t>
+  </si>
+  <si>
+    <t>admin6@mail.com</t>
+  </si>
+  <si>
+    <t>admin7@mail.com</t>
+  </si>
+  <si>
+    <t>admin8@mail.com</t>
+  </si>
+  <si>
+    <t>admin9@mail.com</t>
+  </si>
+  <si>
+    <t>admin10@mail.com</t>
+  </si>
+  <si>
+    <t>admin11@mail.com</t>
+  </si>
+  <si>
+    <t>admin12@mail.com</t>
+  </si>
+  <si>
+    <t>admin13@mail.com</t>
+  </si>
+  <si>
+    <t>admin14@mail.com</t>
+  </si>
+  <si>
+    <t>admin15@mail.com</t>
+  </si>
+  <si>
+    <t>admin16@mail.com</t>
+  </si>
+  <si>
+    <t>admin17@mail.com</t>
+  </si>
+  <si>
+    <t>admin18@mail.com</t>
+  </si>
+  <si>
+    <t>admin19@mail.com</t>
+  </si>
+  <si>
+    <t>admin20@mail.com</t>
+  </si>
+  <si>
+    <t>admin21@mail.com</t>
+  </si>
+  <si>
+    <t>admin22@mail.com</t>
+  </si>
+  <si>
+    <t>admin23@mail.com</t>
+  </si>
+  <si>
+    <t>admin24@mail.com</t>
+  </si>
+  <si>
+    <t>admin25@mail.com</t>
+  </si>
+  <si>
+    <t>admin26@mail.com</t>
+  </si>
+  <si>
+    <t>admin27@mail.com</t>
+  </si>
+  <si>
+    <t>admin28@mail.com</t>
+  </si>
+  <si>
+    <t>admin29@mail.com</t>
+  </si>
+  <si>
+    <t>admin30@mail.com</t>
+  </si>
+  <si>
+    <t>admin31@mail.com</t>
+  </si>
+  <si>
+    <t>admin32@mail.com</t>
+  </si>
+  <si>
+    <t>admin33@mail.com</t>
+  </si>
+  <si>
+    <t>admin34@mail.com</t>
+  </si>
+  <si>
+    <t>admin35@mail.com</t>
+  </si>
+  <si>
+    <t>admin36@mail.com</t>
+  </si>
+  <si>
+    <t>admin37@mail.com</t>
+  </si>
+  <si>
+    <t>admin38@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien1@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien2@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien3@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien4@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien5@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien6@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien7@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien8@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien9@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien10@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien11@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien12@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien13@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien14@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien15@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien16@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien17@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien18@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien19@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien20@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien21@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien22@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien23@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien24@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien25@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien26@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien27@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien28@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien29@mail.com</t>
+  </si>
+  <si>
+    <t>giangvien30@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,20 +341,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -138,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -170,9 +445,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,6 +480,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -379,83 +656,1395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:E90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="E87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B89" r:id="rId4"/>
+    <hyperlink ref="B88" r:id="rId5"/>
+    <hyperlink ref="B87" r:id="rId6"/>
+    <hyperlink ref="B86" r:id="rId7"/>
+    <hyperlink ref="B85" r:id="rId8"/>
+    <hyperlink ref="B84" r:id="rId9"/>
+    <hyperlink ref="B83" r:id="rId10"/>
+    <hyperlink ref="B82" r:id="rId11"/>
+    <hyperlink ref="B81" r:id="rId12"/>
+    <hyperlink ref="B80" r:id="rId13"/>
+    <hyperlink ref="B79" r:id="rId14"/>
+    <hyperlink ref="B78" r:id="rId15"/>
+    <hyperlink ref="B77" r:id="rId16"/>
+    <hyperlink ref="B76" r:id="rId17"/>
+    <hyperlink ref="B75" r:id="rId18"/>
+    <hyperlink ref="B74" r:id="rId19"/>
+    <hyperlink ref="B73" r:id="rId20"/>
+    <hyperlink ref="B72" r:id="rId21"/>
+    <hyperlink ref="B71" r:id="rId22"/>
+    <hyperlink ref="B70" r:id="rId23"/>
+    <hyperlink ref="B69" r:id="rId24"/>
+    <hyperlink ref="B68" r:id="rId25"/>
+    <hyperlink ref="B67" r:id="rId26"/>
+    <hyperlink ref="B66" r:id="rId27"/>
+    <hyperlink ref="B65" r:id="rId28"/>
+    <hyperlink ref="B64" r:id="rId29"/>
+    <hyperlink ref="B63" r:id="rId30"/>
+    <hyperlink ref="B62" r:id="rId31"/>
+    <hyperlink ref="B61" r:id="rId32"/>
+    <hyperlink ref="B60" r:id="rId33"/>
+    <hyperlink ref="B59" r:id="rId34"/>
+    <hyperlink ref="B58" r:id="rId35"/>
+    <hyperlink ref="B57" r:id="rId36"/>
+    <hyperlink ref="B56" r:id="rId37"/>
+    <hyperlink ref="B55" r:id="rId38"/>
+    <hyperlink ref="B54" r:id="rId39"/>
+    <hyperlink ref="B53" r:id="rId40"/>
+    <hyperlink ref="B52" r:id="rId41"/>
+    <hyperlink ref="B51" r:id="rId42"/>
+    <hyperlink ref="B5" r:id="rId43"/>
+    <hyperlink ref="B6" r:id="rId44"/>
+    <hyperlink ref="B7" r:id="rId45"/>
+    <hyperlink ref="B8" r:id="rId46"/>
+    <hyperlink ref="B9" r:id="rId47"/>
+    <hyperlink ref="B90" r:id="rId48"/>
+    <hyperlink ref="B50" r:id="rId49"/>
+    <hyperlink ref="B49" r:id="rId50"/>
+    <hyperlink ref="B48" r:id="rId51"/>
+    <hyperlink ref="B47" r:id="rId52"/>
+    <hyperlink ref="B46" r:id="rId53"/>
+    <hyperlink ref="B45" r:id="rId54"/>
+    <hyperlink ref="B44" r:id="rId55"/>
+    <hyperlink ref="B43" r:id="rId56"/>
+    <hyperlink ref="B42" r:id="rId57"/>
+    <hyperlink ref="B41" r:id="rId58"/>
+    <hyperlink ref="B40" r:id="rId59"/>
+    <hyperlink ref="B39" r:id="rId60"/>
+    <hyperlink ref="B38" r:id="rId61"/>
+    <hyperlink ref="B37" r:id="rId62"/>
+    <hyperlink ref="B36" r:id="rId63"/>
+    <hyperlink ref="B10" r:id="rId64"/>
+    <hyperlink ref="B11" r:id="rId65"/>
+    <hyperlink ref="B12" r:id="rId66"/>
+    <hyperlink ref="B13" r:id="rId67"/>
+    <hyperlink ref="B35" r:id="rId68"/>
+    <hyperlink ref="B34" r:id="rId69"/>
+    <hyperlink ref="B33" r:id="rId70"/>
+    <hyperlink ref="B32" r:id="rId71"/>
+    <hyperlink ref="B31" r:id="rId72"/>
+    <hyperlink ref="B30" r:id="rId73"/>
+    <hyperlink ref="B29" r:id="rId74"/>
+    <hyperlink ref="B28" r:id="rId75"/>
+    <hyperlink ref="B27" r:id="rId76"/>
+    <hyperlink ref="B26" r:id="rId77"/>
+    <hyperlink ref="B25" r:id="rId78"/>
+    <hyperlink ref="B24" r:id="rId79"/>
+    <hyperlink ref="B23" r:id="rId80"/>
+    <hyperlink ref="B22" r:id="rId81"/>
+    <hyperlink ref="B21" r:id="rId82"/>
+    <hyperlink ref="B20" r:id="rId83"/>
+    <hyperlink ref="B19" r:id="rId84"/>
+    <hyperlink ref="B18" r:id="rId85"/>
+    <hyperlink ref="B17" r:id="rId86"/>
+    <hyperlink ref="B16" r:id="rId87"/>
+    <hyperlink ref="B15" r:id="rId88"/>
+    <hyperlink ref="B14" r:id="rId89"/>
+    <hyperlink ref="B3" r:id="rId90"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/admin/uploads/test.xlsx
+++ b/admin/uploads/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\BTL\admin\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BTL\admin\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A73CB3B-1401-412F-8802-C8585AF005FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12525"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="186">
   <si>
     <t>$2y$10$rCpnHGtra.axVLHRJS1fMOdyofMUPeIamkwIHR10H7u1tVB1CptkW</t>
   </si>
@@ -294,12 +295,297 @@
   </si>
   <si>
     <t>giangvien30@mail.com</t>
+  </si>
+  <si>
+    <t>quanly1</t>
+  </si>
+  <si>
+    <t>quanly2</t>
+  </si>
+  <si>
+    <t>quanly3</t>
+  </si>
+  <si>
+    <t>quanly4</t>
+  </si>
+  <si>
+    <t>quanly5</t>
+  </si>
+  <si>
+    <t>quanly6</t>
+  </si>
+  <si>
+    <t>quanly7</t>
+  </si>
+  <si>
+    <t>quanly8</t>
+  </si>
+  <si>
+    <t>quanly9</t>
+  </si>
+  <si>
+    <t>quanly10</t>
+  </si>
+  <si>
+    <t>quanly11</t>
+  </si>
+  <si>
+    <t>quanly12</t>
+  </si>
+  <si>
+    <t>quanly13</t>
+  </si>
+  <si>
+    <t>quanly14</t>
+  </si>
+  <si>
+    <t>quanly15</t>
+  </si>
+  <si>
+    <t>quanly16</t>
+  </si>
+  <si>
+    <t>quanly17</t>
+  </si>
+  <si>
+    <t>quanly18</t>
+  </si>
+  <si>
+    <t>quanly19</t>
+  </si>
+  <si>
+    <t>quanly20</t>
+  </si>
+  <si>
+    <t>quanly21</t>
+  </si>
+  <si>
+    <t>quanly22</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admin2</t>
+  </si>
+  <si>
+    <t>admin3</t>
+  </si>
+  <si>
+    <t>admin4</t>
+  </si>
+  <si>
+    <t>admin5</t>
+  </si>
+  <si>
+    <t>admin6</t>
+  </si>
+  <si>
+    <t>admin7</t>
+  </si>
+  <si>
+    <t>admin8</t>
+  </si>
+  <si>
+    <t>admin9</t>
+  </si>
+  <si>
+    <t>admin10</t>
+  </si>
+  <si>
+    <t>admin11</t>
+  </si>
+  <si>
+    <t>admin12</t>
+  </si>
+  <si>
+    <t>admin13</t>
+  </si>
+  <si>
+    <t>admin14</t>
+  </si>
+  <si>
+    <t>admin15</t>
+  </si>
+  <si>
+    <t>admin16</t>
+  </si>
+  <si>
+    <t>admin17</t>
+  </si>
+  <si>
+    <t>admin18</t>
+  </si>
+  <si>
+    <t>admin19</t>
+  </si>
+  <si>
+    <t>admin20</t>
+  </si>
+  <si>
+    <t>admin21</t>
+  </si>
+  <si>
+    <t>admin22</t>
+  </si>
+  <si>
+    <t>admin23</t>
+  </si>
+  <si>
+    <t>admin24</t>
+  </si>
+  <si>
+    <t>admin25</t>
+  </si>
+  <si>
+    <t>admin26</t>
+  </si>
+  <si>
+    <t>admin27</t>
+  </si>
+  <si>
+    <t>admin28</t>
+  </si>
+  <si>
+    <t>admin29</t>
+  </si>
+  <si>
+    <t>admin30</t>
+  </si>
+  <si>
+    <t>admin31</t>
+  </si>
+  <si>
+    <t>admin32</t>
+  </si>
+  <si>
+    <t>admin33</t>
+  </si>
+  <si>
+    <t>admin34</t>
+  </si>
+  <si>
+    <t>admin35</t>
+  </si>
+  <si>
+    <t>admin36</t>
+  </si>
+  <si>
+    <t>admin37</t>
+  </si>
+  <si>
+    <t>admin38</t>
+  </si>
+  <si>
+    <t>giangvien1</t>
+  </si>
+  <si>
+    <t>giangvien2</t>
+  </si>
+  <si>
+    <t>giangvien3</t>
+  </si>
+  <si>
+    <t>giangvien4</t>
+  </si>
+  <si>
+    <t>giangvien5</t>
+  </si>
+  <si>
+    <t>giangvien6</t>
+  </si>
+  <si>
+    <t>giangvien7</t>
+  </si>
+  <si>
+    <t>giangvien8</t>
+  </si>
+  <si>
+    <t>giangvien9</t>
+  </si>
+  <si>
+    <t>giangvien10</t>
+  </si>
+  <si>
+    <t>giangvien11</t>
+  </si>
+  <si>
+    <t>giangvien12</t>
+  </si>
+  <si>
+    <t>giangvien13</t>
+  </si>
+  <si>
+    <t>giangvien14</t>
+  </si>
+  <si>
+    <t>giangvien15</t>
+  </si>
+  <si>
+    <t>giangvien16</t>
+  </si>
+  <si>
+    <t>giangvien17</t>
+  </si>
+  <si>
+    <t>giangvien18</t>
+  </si>
+  <si>
+    <t>giangvien19</t>
+  </si>
+  <si>
+    <t>giangvien20</t>
+  </si>
+  <si>
+    <t>giangvien21</t>
+  </si>
+  <si>
+    <t>giangvien22</t>
+  </si>
+  <si>
+    <t>giangvien23</t>
+  </si>
+  <si>
+    <t>giangvien24</t>
+  </si>
+  <si>
+    <t>giangvien25</t>
+  </si>
+  <si>
+    <t>giangvien26</t>
+  </si>
+  <si>
+    <t>giangvien27</t>
+  </si>
+  <si>
+    <t>giangvien28</t>
+  </si>
+  <si>
+    <t>giangvien29</t>
+  </si>
+  <si>
+    <t>giangvien30</t>
+  </si>
+  <si>
+    <t>Tên Tài Khoản</t>
+  </si>
+  <si>
+    <t>Mật Khẩu</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Cấp Độ</t>
+  </si>
+  <si>
+    <t>Mã TK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -345,13 +631,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,6 +733,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -481,6 +785,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,1395 +977,1684 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E90"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
+        <v>181</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="F8">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="F9">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="F16">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="F17">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="F18">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C18">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="F19">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="F20">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="D21">
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="F21">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
+      <c r="D22">
         <v>2</v>
       </c>
-      <c r="E21">
+      <c r="F22">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
+      <c r="D23">
         <v>2</v>
       </c>
-      <c r="E22">
+      <c r="F23">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="E25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="28" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="E27">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="E28">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="E32">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="E33">
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="E34">
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="E35">
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="E36">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="38" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="E38">
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="E39">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="E40">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="E41">
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="3" t="s">
+    <row r="43" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="E42">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="E43">
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="E44">
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="46" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="E45">
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="E46">
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="E47">
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="E48">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="E49">
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51">
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="3" t="s">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="E52">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="E54">
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="E55">
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="E56">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="E57">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="3" t="s">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="E58">
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="3" t="s">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="E59">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="3" t="s">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="E60">
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="E61">
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="F62">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="3" t="s">
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="E62">
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="F63">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="3" t="s">
+    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="E63">
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="F64">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="E64">
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="F65">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="E65">
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="F66">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="E66">
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="F67">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="E67">
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="F68">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="E68">
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="F69">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="E69">
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="F70">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="E70">
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="F71">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="E71">
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="F72">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="E72">
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="F73">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="3" t="s">
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="E73">
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="F74">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="E74">
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="F75">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="E75">
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="F76">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="E76">
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="F77">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="3" t="s">
+    <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="E77">
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="F78">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="3" t="s">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="E78">
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="F79">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="3" t="s">
+    <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="E79">
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="F80">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="3" t="s">
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="E80">
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="F81">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="3" t="s">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>171</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="E81">
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="F82">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="3" t="s">
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-      <c r="E82">
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="F83">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="3" t="s">
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>173</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-      <c r="E83">
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="F84">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="3" t="s">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-      <c r="E84">
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="F85">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="3" t="s">
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="E85">
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="F86">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="3" t="s">
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="E86">
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="F87">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="3" t="s">
+    <row r="88" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C87">
-        <v>3</v>
-      </c>
-      <c r="E87">
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="F88">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B88" s="3" t="s">
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C88">
-        <v>3</v>
-      </c>
-      <c r="E88">
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="F89">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="3" t="s">
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="E89">
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="F90">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B90" s="3" t="s">
+    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C90">
-        <v>3</v>
-      </c>
-      <c r="E90">
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="F91">
         <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B89" r:id="rId4"/>
-    <hyperlink ref="B88" r:id="rId5"/>
-    <hyperlink ref="B87" r:id="rId6"/>
-    <hyperlink ref="B86" r:id="rId7"/>
-    <hyperlink ref="B85" r:id="rId8"/>
-    <hyperlink ref="B84" r:id="rId9"/>
-    <hyperlink ref="B83" r:id="rId10"/>
-    <hyperlink ref="B82" r:id="rId11"/>
-    <hyperlink ref="B81" r:id="rId12"/>
-    <hyperlink ref="B80" r:id="rId13"/>
-    <hyperlink ref="B79" r:id="rId14"/>
-    <hyperlink ref="B78" r:id="rId15"/>
-    <hyperlink ref="B77" r:id="rId16"/>
-    <hyperlink ref="B76" r:id="rId17"/>
-    <hyperlink ref="B75" r:id="rId18"/>
-    <hyperlink ref="B74" r:id="rId19"/>
-    <hyperlink ref="B73" r:id="rId20"/>
-    <hyperlink ref="B72" r:id="rId21"/>
-    <hyperlink ref="B71" r:id="rId22"/>
-    <hyperlink ref="B70" r:id="rId23"/>
-    <hyperlink ref="B69" r:id="rId24"/>
-    <hyperlink ref="B68" r:id="rId25"/>
-    <hyperlink ref="B67" r:id="rId26"/>
-    <hyperlink ref="B66" r:id="rId27"/>
-    <hyperlink ref="B65" r:id="rId28"/>
-    <hyperlink ref="B64" r:id="rId29"/>
-    <hyperlink ref="B63" r:id="rId30"/>
-    <hyperlink ref="B62" r:id="rId31"/>
-    <hyperlink ref="B61" r:id="rId32"/>
-    <hyperlink ref="B60" r:id="rId33"/>
-    <hyperlink ref="B59" r:id="rId34"/>
-    <hyperlink ref="B58" r:id="rId35"/>
-    <hyperlink ref="B57" r:id="rId36"/>
-    <hyperlink ref="B56" r:id="rId37"/>
-    <hyperlink ref="B55" r:id="rId38"/>
-    <hyperlink ref="B54" r:id="rId39"/>
-    <hyperlink ref="B53" r:id="rId40"/>
-    <hyperlink ref="B52" r:id="rId41"/>
-    <hyperlink ref="B51" r:id="rId42"/>
-    <hyperlink ref="B5" r:id="rId43"/>
-    <hyperlink ref="B6" r:id="rId44"/>
-    <hyperlink ref="B7" r:id="rId45"/>
-    <hyperlink ref="B8" r:id="rId46"/>
-    <hyperlink ref="B9" r:id="rId47"/>
-    <hyperlink ref="B90" r:id="rId48"/>
-    <hyperlink ref="B50" r:id="rId49"/>
-    <hyperlink ref="B49" r:id="rId50"/>
-    <hyperlink ref="B48" r:id="rId51"/>
-    <hyperlink ref="B47" r:id="rId52"/>
-    <hyperlink ref="B46" r:id="rId53"/>
-    <hyperlink ref="B45" r:id="rId54"/>
-    <hyperlink ref="B44" r:id="rId55"/>
-    <hyperlink ref="B43" r:id="rId56"/>
-    <hyperlink ref="B42" r:id="rId57"/>
-    <hyperlink ref="B41" r:id="rId58"/>
-    <hyperlink ref="B40" r:id="rId59"/>
-    <hyperlink ref="B39" r:id="rId60"/>
-    <hyperlink ref="B38" r:id="rId61"/>
-    <hyperlink ref="B37" r:id="rId62"/>
-    <hyperlink ref="B36" r:id="rId63"/>
-    <hyperlink ref="B10" r:id="rId64"/>
-    <hyperlink ref="B11" r:id="rId65"/>
-    <hyperlink ref="B12" r:id="rId66"/>
-    <hyperlink ref="B13" r:id="rId67"/>
-    <hyperlink ref="B35" r:id="rId68"/>
-    <hyperlink ref="B34" r:id="rId69"/>
-    <hyperlink ref="B33" r:id="rId70"/>
-    <hyperlink ref="B32" r:id="rId71"/>
-    <hyperlink ref="B31" r:id="rId72"/>
-    <hyperlink ref="B30" r:id="rId73"/>
-    <hyperlink ref="B29" r:id="rId74"/>
-    <hyperlink ref="B28" r:id="rId75"/>
-    <hyperlink ref="B27" r:id="rId76"/>
-    <hyperlink ref="B26" r:id="rId77"/>
-    <hyperlink ref="B25" r:id="rId78"/>
-    <hyperlink ref="B24" r:id="rId79"/>
-    <hyperlink ref="B23" r:id="rId80"/>
-    <hyperlink ref="B22" r:id="rId81"/>
-    <hyperlink ref="B21" r:id="rId82"/>
-    <hyperlink ref="B20" r:id="rId83"/>
-    <hyperlink ref="B19" r:id="rId84"/>
-    <hyperlink ref="B18" r:id="rId85"/>
-    <hyperlink ref="B17" r:id="rId86"/>
-    <hyperlink ref="B16" r:id="rId87"/>
-    <hyperlink ref="B15" r:id="rId88"/>
-    <hyperlink ref="B14" r:id="rId89"/>
-    <hyperlink ref="B3" r:id="rId90"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D460AA31-70B2-4F6A-8564-3BF3C802F710}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5CD2F491-7166-491D-86EB-6D793D10AF1E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{2F75D9EE-98C4-4769-AB8F-D5100AC1B598}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{593CBD6F-E712-4086-8391-3D1B63378D75}"/>
+    <hyperlink ref="C90" r:id="rId5" xr:uid="{93F7FAC9-6898-4286-971C-06ADDBFD2868}"/>
+    <hyperlink ref="C89" r:id="rId6" xr:uid="{67ACBF36-D1BB-44CE-8FC9-3DE766B4B4D4}"/>
+    <hyperlink ref="C88" r:id="rId7" xr:uid="{FBB58AD8-738E-4237-A329-4D2FF98521F6}"/>
+    <hyperlink ref="C87" r:id="rId8" xr:uid="{35076A67-EB9B-4F40-9BB5-F0CA274E78F2}"/>
+    <hyperlink ref="C86" r:id="rId9" xr:uid="{E18944D8-6467-46CF-AA29-493C8F800E28}"/>
+    <hyperlink ref="C85" r:id="rId10" xr:uid="{63DB5FB0-DC18-4408-B1FA-636F19ADE3AC}"/>
+    <hyperlink ref="C84" r:id="rId11" xr:uid="{3615B731-3B73-4179-AB0B-F78C6E9C2486}"/>
+    <hyperlink ref="C83" r:id="rId12" xr:uid="{19C57096-F8E9-4CAD-A729-637C2487BB6C}"/>
+    <hyperlink ref="C82" r:id="rId13" xr:uid="{D26104D9-AC17-4672-AD80-D1E4CA275C2A}"/>
+    <hyperlink ref="C81" r:id="rId14" xr:uid="{B5E4B1F9-2612-45F5-8264-CB507CD1C7B0}"/>
+    <hyperlink ref="C80" r:id="rId15" xr:uid="{F7E7A7C0-A88F-42C8-B302-E1A46F27273B}"/>
+    <hyperlink ref="C79" r:id="rId16" xr:uid="{FC72FCEA-91D8-4860-9A70-57DFD5E96C42}"/>
+    <hyperlink ref="C78" r:id="rId17" xr:uid="{D903B056-DF4E-4AC9-8AE5-2F1D1E23944F}"/>
+    <hyperlink ref="C77" r:id="rId18" xr:uid="{53FE8C02-A739-4C4D-A97A-82AF5F142A86}"/>
+    <hyperlink ref="C76" r:id="rId19" xr:uid="{96598757-3854-4841-8ECD-F10500ED5EA6}"/>
+    <hyperlink ref="C75" r:id="rId20" xr:uid="{CC031C4E-2465-4CCD-8735-4DFE4D60D212}"/>
+    <hyperlink ref="C74" r:id="rId21" xr:uid="{7A35520B-E6B0-4157-A195-D28E5A71E119}"/>
+    <hyperlink ref="C73" r:id="rId22" xr:uid="{53A6933B-9633-49BA-AEDC-F0F166AA522D}"/>
+    <hyperlink ref="C72" r:id="rId23" xr:uid="{14DAAF38-C615-44E6-8BFD-1E57D7A3766E}"/>
+    <hyperlink ref="C71" r:id="rId24" xr:uid="{9FCDA38D-01F4-4B4F-AC33-562A85608F1E}"/>
+    <hyperlink ref="C70" r:id="rId25" xr:uid="{C6AD234F-3EA4-4F9D-8B57-2729B340EAB7}"/>
+    <hyperlink ref="C69" r:id="rId26" xr:uid="{82815DBC-250E-4714-B329-A41105971C37}"/>
+    <hyperlink ref="C68" r:id="rId27" xr:uid="{5DB70E2F-2444-4346-A2AA-5835E81B68BB}"/>
+    <hyperlink ref="C67" r:id="rId28" xr:uid="{BCB08FE5-BD65-4605-ABFB-5CA8E8BCA6E3}"/>
+    <hyperlink ref="C66" r:id="rId29" xr:uid="{5F04E1E9-972B-46D3-9416-8CCCFB445805}"/>
+    <hyperlink ref="C65" r:id="rId30" xr:uid="{A3E07FD0-B9EE-4C6A-949A-32994DE8DE1B}"/>
+    <hyperlink ref="C64" r:id="rId31" xr:uid="{45415870-371F-4B02-A99E-A03E0B9F1547}"/>
+    <hyperlink ref="C63" r:id="rId32" xr:uid="{AA2C6EEA-D782-4797-AA3F-2D90C413AFCD}"/>
+    <hyperlink ref="C62" r:id="rId33" xr:uid="{66FDCBE7-9DD0-4233-9F91-7AD48BDCAEB0}"/>
+    <hyperlink ref="C61" r:id="rId34" xr:uid="{364F7407-258C-4C17-9359-BE329E86C467}"/>
+    <hyperlink ref="C60" r:id="rId35" xr:uid="{E35364D8-3C16-4B59-97E8-65A8BC382F23}"/>
+    <hyperlink ref="C59" r:id="rId36" xr:uid="{2AA1FB81-B786-4663-942A-2DFABC02D127}"/>
+    <hyperlink ref="C58" r:id="rId37" xr:uid="{F40EC3E7-E400-4209-9FA9-DB8B4F64BDDA}"/>
+    <hyperlink ref="C57" r:id="rId38" xr:uid="{5DE17E54-4FEE-4D39-9A9F-0D1A2190734D}"/>
+    <hyperlink ref="C56" r:id="rId39" xr:uid="{DC463E2F-191B-4B40-81CC-30567D179EC4}"/>
+    <hyperlink ref="C55" r:id="rId40" xr:uid="{03F34E41-7C5E-4373-8F46-58B09CFFEAF9}"/>
+    <hyperlink ref="C54" r:id="rId41" xr:uid="{6588868A-ECA4-4959-92FE-E6C6E4AF9117}"/>
+    <hyperlink ref="C53" r:id="rId42" xr:uid="{42996B3B-38D4-48A8-92D5-9BD3AF263A48}"/>
+    <hyperlink ref="C52" r:id="rId43" xr:uid="{6BB12A37-FBAD-4E8F-8F35-1B3A3B228A47}"/>
+    <hyperlink ref="C6" r:id="rId44" xr:uid="{B0A5FC65-E400-449B-860C-09661D03D8DD}"/>
+    <hyperlink ref="C7" r:id="rId45" xr:uid="{A799B2AC-7653-408E-B501-8D0DE397A9CF}"/>
+    <hyperlink ref="C8" r:id="rId46" xr:uid="{3447C5AD-B905-4AC9-A5E9-CE1EF4BB64C2}"/>
+    <hyperlink ref="C9" r:id="rId47" xr:uid="{71568B5D-DE48-4ED8-9E11-096AD5F990E7}"/>
+    <hyperlink ref="C10" r:id="rId48" xr:uid="{6ADF20B6-ECCD-4BC3-BCD7-B65F2E5FA074}"/>
+    <hyperlink ref="C91" r:id="rId49" xr:uid="{6D03AB80-4D60-40E7-9C2B-A8CB36328A91}"/>
+    <hyperlink ref="C51" r:id="rId50" xr:uid="{C6541E2A-A6E1-4BDA-BF69-2A0DD8C7E48E}"/>
+    <hyperlink ref="C50" r:id="rId51" xr:uid="{FC1A42E3-9E49-4C4E-A5BB-A2DFB00DF750}"/>
+    <hyperlink ref="C49" r:id="rId52" xr:uid="{B19AA5C0-758D-4CAD-8394-12C09DA4417A}"/>
+    <hyperlink ref="C48" r:id="rId53" xr:uid="{85BEECA0-AACB-4CD6-BFEC-8DB2CDCE2FBD}"/>
+    <hyperlink ref="C47" r:id="rId54" xr:uid="{E9260290-0A12-4779-A658-7FB3C5D87481}"/>
+    <hyperlink ref="C46" r:id="rId55" xr:uid="{2031CC87-C13B-4A44-8EC4-19C7B63F8B80}"/>
+    <hyperlink ref="C45" r:id="rId56" xr:uid="{2DD841B4-0C19-4FA7-9B6D-C596753A9926}"/>
+    <hyperlink ref="C44" r:id="rId57" xr:uid="{A8722B49-7EA5-4741-B6D7-A36E61D71DDD}"/>
+    <hyperlink ref="C43" r:id="rId58" xr:uid="{E1377B37-0C80-46DF-A21F-51EB5034F205}"/>
+    <hyperlink ref="C42" r:id="rId59" xr:uid="{F6960EC0-C277-4142-8880-5446425CB8A6}"/>
+    <hyperlink ref="C41" r:id="rId60" xr:uid="{235EBCC4-ECC6-40D3-90FF-AA29EBC5FE8C}"/>
+    <hyperlink ref="C40" r:id="rId61" xr:uid="{B3722253-1E36-4C8A-AD3F-B1F6EA2CBD4F}"/>
+    <hyperlink ref="C39" r:id="rId62" xr:uid="{182A5A30-BBE4-4D55-BD4C-1996C308F29A}"/>
+    <hyperlink ref="C38" r:id="rId63" xr:uid="{312F7B7F-A526-456A-A78A-E736C0C22FA9}"/>
+    <hyperlink ref="C37" r:id="rId64" xr:uid="{C400F44E-387C-4D94-9131-806DE7515985}"/>
+    <hyperlink ref="C11" r:id="rId65" xr:uid="{CB4DC21A-E8E7-4D8D-A362-4FD5A83E0420}"/>
+    <hyperlink ref="C12" r:id="rId66" xr:uid="{68D99986-B45F-42F7-84DA-AE876D1C9B0B}"/>
+    <hyperlink ref="C13" r:id="rId67" xr:uid="{EABB89C8-403E-451F-BE8F-25B3F48F4DFF}"/>
+    <hyperlink ref="C14" r:id="rId68" xr:uid="{49F5A4AF-EC8E-4C60-A95D-9CEA435D0245}"/>
+    <hyperlink ref="C36" r:id="rId69" xr:uid="{29199AC2-3222-4803-8EA7-594611DBDD82}"/>
+    <hyperlink ref="C35" r:id="rId70" xr:uid="{CE52193B-2E5A-4994-9607-4273F1356352}"/>
+    <hyperlink ref="C34" r:id="rId71" xr:uid="{750E8E5B-4AC5-498F-A9C3-C90708B755C3}"/>
+    <hyperlink ref="C33" r:id="rId72" xr:uid="{A3A18AA0-AE48-4E7B-B718-A377A4E19DA4}"/>
+    <hyperlink ref="C32" r:id="rId73" xr:uid="{86091685-57F2-4C8C-B38A-CF8DD0A21F13}"/>
+    <hyperlink ref="C31" r:id="rId74" xr:uid="{E43C435B-AF10-4D9E-BE3C-5D5E61F9504B}"/>
+    <hyperlink ref="C30" r:id="rId75" xr:uid="{0DDD2A81-B250-4F5B-AB6B-2888261A82C4}"/>
+    <hyperlink ref="C29" r:id="rId76" xr:uid="{D5222A2E-7DAD-4A60-BE72-0830895426B4}"/>
+    <hyperlink ref="C28" r:id="rId77" xr:uid="{86EC4FD5-D8C8-4E81-A23A-A4359B84EE76}"/>
+    <hyperlink ref="C27" r:id="rId78" xr:uid="{1458D05A-3ADD-48A1-BCCC-FD4100B69117}"/>
+    <hyperlink ref="C26" r:id="rId79" xr:uid="{7AC79407-69FD-48AF-808A-2DAC3659BE05}"/>
+    <hyperlink ref="C25" r:id="rId80" xr:uid="{5E28B4AB-B92C-45C1-B7C5-A74658BC77D4}"/>
+    <hyperlink ref="C24" r:id="rId81" xr:uid="{2CD24081-66FB-4608-BD66-3C13BF97C0C2}"/>
+    <hyperlink ref="C23" r:id="rId82" xr:uid="{A0AAA218-25FD-4E21-840E-4FDC1DC9150E}"/>
+    <hyperlink ref="C22" r:id="rId83" xr:uid="{BD054128-F23C-4C40-9CC3-DDE706157445}"/>
+    <hyperlink ref="C21" r:id="rId84" xr:uid="{F31B2BEF-8384-49F5-991C-E3B61A50CBFC}"/>
+    <hyperlink ref="C20" r:id="rId85" xr:uid="{92319745-2BDE-4C8D-A6A0-20C2080F8832}"/>
+    <hyperlink ref="C19" r:id="rId86" xr:uid="{2BCF4457-3E44-4A6F-BF76-55EC0CB3CC56}"/>
+    <hyperlink ref="C18" r:id="rId87" xr:uid="{259116D0-A9B3-4507-B4F2-078FCCCD30D8}"/>
+    <hyperlink ref="C17" r:id="rId88" xr:uid="{B40A0DDB-E1E8-4BDC-8962-35F05B67CF61}"/>
+    <hyperlink ref="C16" r:id="rId89" xr:uid="{EE378909-8180-43DA-BE2A-6E0197741C65}"/>
+    <hyperlink ref="C15" r:id="rId90" xr:uid="{C5C2BAF0-2043-426D-B8F8-439621CD5F6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId91"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
